--- a/Clinica-Amor/archivos-amo/parametros_empresa.xlsx
+++ b/Clinica-Amor/archivos-amo/parametros_empresa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="horario" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,11 +15,11 @@
     <sheet name="sw" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="emisor" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="zonas" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="encargado_citas" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="encargado_psicologia" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="encargado_consultoria" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="encargado_terapia" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="encargado_inscripciones" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="encargado_solicitudes" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="encargado_cursos" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="proveedores" sheetId="13" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="82">
   <si>
     <t xml:space="preserve">HORA</t>
   </si>
@@ -76,16 +76,16 @@
     <t xml:space="preserve">SERVICIOS</t>
   </si>
   <si>
-    <t xml:space="preserve">Programar Cita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultoría Psicosocial</t>
+    <t xml:space="preserve">Psicología</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consultoría Social</t>
   </si>
   <si>
     <t xml:space="preserve">Terapia</t>
   </si>
   <si>
-    <t xml:space="preserve">Consulta en General</t>
+    <t xml:space="preserve">Cursos</t>
   </si>
   <si>
     <t xml:space="preserve">Inscripción</t>
@@ -106,22 +106,7 @@
     <t xml:space="preserve">CODIGOQR</t>
   </si>
   <si>
-    <t xml:space="preserve">AREA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEHICULO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MODELO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLACA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LICENCIA</t>
+    <t xml:space="preserve">ZONA</t>
   </si>
   <si>
     <t xml:space="preserve">Dr.Leonardo</t>
@@ -130,58 +115,55 @@
     <t xml:space="preserve">dpdelta1@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Norte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMN093</t>
+    <t xml:space="preserve">Encargado1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta9@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inscripciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta10@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta2@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Encargado4</t>
   </si>
   <si>
-    <t xml:space="preserve">dpdelta4@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sur</t>
-  </si>
-  <si>
     <t xml:space="preserve">Encargado5</t>
   </si>
   <si>
-    <t xml:space="preserve">dpdelta5@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oriente</t>
+    <t xml:space="preserve">Consultoría</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado6</t>
   </si>
   <si>
     <t xml:space="preserve">Encargado7</t>
   </si>
   <si>
-    <t xml:space="preserve">dpdelta7@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occidente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oficina1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta9@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oficina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oficina2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta10@gmail.com</t>
+    <t xml:space="preserve">Encargado8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado12</t>
   </si>
   <si>
     <t xml:space="preserve">producto</t>
@@ -190,7 +172,7 @@
     <t xml:space="preserve">valor</t>
   </si>
   <si>
-    <t xml:space="preserve">Psicología</t>
+    <t xml:space="preserve">Psicología Ansiedad – Depresión</t>
   </si>
   <si>
     <t xml:space="preserve">Trabajo  Social</t>
@@ -217,9 +199,6 @@
     <t xml:space="preserve">Dependencia en Adicciones</t>
   </si>
   <si>
-    <t xml:space="preserve">Cursos</t>
-  </si>
-  <si>
     <t xml:space="preserve">Otros(libros, asesorías,  visitas)</t>
   </si>
   <si>
@@ -262,34 +241,7 @@
     <t xml:space="preserve">cliniccadelamorg@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">ZONA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Citas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultoría</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inscripciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solicitudes</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dr. Leonardo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encargado2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta2@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encargado3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultoria</t>
   </si>
   <si>
     <t xml:space="preserve">SERVICIO</t>
@@ -591,7 +543,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -618,15 +570,15 @@
         <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3200000000</v>
@@ -641,10 +593,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3205511091</v>
@@ -659,10 +611,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3205511091</v>
@@ -697,7 +649,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -725,15 +677,15 @@
         <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3200000000</v>
@@ -743,15 +695,15 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="2" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3205511091</v>
@@ -761,15 +713,15 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3205511091</v>
@@ -779,7 +731,7 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -805,7 +757,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -831,15 +783,15 @@
         <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3200000000</v>
@@ -849,15 +801,15 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="2" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3205511091</v>
@@ -867,15 +819,15 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3205511091</v>
@@ -885,7 +837,7 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -924,80 +876,80 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>9999999999</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F2" s="9" t="n">
         <v>20000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>9999999999</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F3" s="9" t="n">
         <v>20000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1019,7 +971,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1074,24 +1026,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="15.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="20.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="12.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="9.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="9.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="7" style="3" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16380" style="0" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
@@ -1110,28 +1062,13 @@
       <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3200000000</v>
@@ -1140,110 +1077,201 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>3205511091</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="2" t="n">
-        <v>2020</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>3205511091</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="2" t="n">
-        <v>999999999</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>3205511091</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>3200000003</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>3205511091</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>3205511091</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>3205511091</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>3200000004</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>3205511091</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>3205511091</v>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>3205511091</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>3205511091</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1263,7 +1291,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1274,15 +1302,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>1</v>
@@ -1290,7 +1318,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>2</v>
@@ -1298,7 +1326,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>3</v>
@@ -1306,7 +1334,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>4</v>
@@ -1314,7 +1342,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>5</v>
@@ -1322,7 +1350,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B7" s="4" t="n">
         <v>6</v>
@@ -1330,7 +1358,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>7</v>
@@ -1338,7 +1366,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B9" s="4" t="n">
         <v>8</v>
@@ -1346,7 +1374,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B10" s="4" t="n">
         <v>9</v>
@@ -1354,7 +1382,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>10</v>
@@ -1362,7 +1390,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B12" s="4" t="n">
         <v>6</v>
@@ -1414,18 +1442,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1446,7 +1474,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1462,16 +1490,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>21</v>
@@ -1482,22 +1510,22 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>987654321</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1522,7 +1550,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1532,17 +1560,17 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1552,12 +1580,12 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1579,7 +1607,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1589,6 +1617,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="12.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="9.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.78"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1608,15 +1637,15 @@
         <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3200000000</v>
@@ -1625,15 +1654,15 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3205511091</v>
@@ -1642,15 +1671,15 @@
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3205511091</v>
@@ -1659,7 +1688,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1684,7 +1713,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1712,15 +1741,15 @@
         <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3200000000</v>
@@ -1730,15 +1759,15 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="2" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3205511091</v>
@@ -1748,15 +1777,15 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3205511091</v>
@@ -1766,7 +1795,7 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
     </row>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Clinica-Amor/archivos-amo/parametros_empresa.xlsx
+++ b/Clinica-Amor/archivos-amo/parametros_empresa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="horario" sheetId="1" state="visible" r:id="rId2"/>
@@ -94,136 +94,136 @@
     <t xml:space="preserve">ENCARGADOS</t>
   </si>
   <si>
+    <t xml:space="preserve">Jue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TELEFONO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEDULA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CODIGOQR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZONA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr.Leonardo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta1@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta9@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inscripciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta10@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta2@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psicología Ansiedad – Depresión</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trabajo  Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conflicto Relación Pareja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problema de Aprendizaje Infantil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duelo por Separación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manejo de Celos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infidelidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dependencia  Emocional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dependencia en Adicciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otros(libros, asesorías,  visitas)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPRESA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URLSHEET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERDADERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://docs.google.com/spreadsheets/d/18Xzq0almiDk740OyywLTtj3gGXLA20AFHLZaAqZzEGI/edit?gid=0#gid=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOMBRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIRECCION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIUDAD</t>
+  </si>
+  <si>
     <t xml:space="preserve">EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TELEFONO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CEDULA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CODIGOQR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZONA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr.Leonardo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta1@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encargado1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta9@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inscripciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encargado2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta10@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encargado3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta2@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encargado4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encargado5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consultoría</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encargado6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encargado7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encargado8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encargado9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encargado10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encargado11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encargado12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">producto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psicología Ansiedad – Depresión</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trabajo  Social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conflicto Relación Pareja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Problema de Aprendizaje Infantil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duelo por Separación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manejo de Celos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infidelidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dependencia  Emocional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dependencia en Adicciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otros(libros, asesorías,  visitas)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMPRESA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URLSHEET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VERDADERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://docs.google.com/spreadsheets/d/18Xzq0almiDk740OyywLTtj3gGXLA20AFHLZaAqZzEGI/edit?gid=0#gid=0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOMBRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIRECCION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIUDAD</t>
   </si>
   <si>
     <t xml:space="preserve">Clinica del Amor</t>
@@ -290,7 +290,7 @@
     <numFmt numFmtId="166" formatCode="#"/>
     <numFmt numFmtId="167" formatCode="#,###.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -319,6 +319,12 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -378,7 +384,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -395,6 +401,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -407,7 +417,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -558,7 +568,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
@@ -593,7 +603,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>33</v>
@@ -611,7 +621,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>33</v>
@@ -665,7 +675,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
@@ -700,7 +710,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>33</v>
@@ -718,7 +728,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>33</v>
@@ -771,7 +781,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
@@ -806,7 +816,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>33</v>
@@ -824,7 +834,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>33</v>
@@ -865,24 +875,24 @@
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="12.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="12.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="10.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="10.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="13.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="15.06"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>70</v>
@@ -890,7 +900,7 @@
       <c r="E1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="12" t="s">
         <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -904,7 +914,7 @@
       <c r="A2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="8" t="n">
+      <c r="B2" s="9" t="n">
         <v>9999999999</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -916,7 +926,7 @@
       <c r="E2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="9" t="n">
+      <c r="F2" s="10" t="n">
         <v>20000</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -930,7 +940,7 @@
       <c r="A3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="9" t="n">
         <v>9999999999</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -942,7 +952,7 @@
       <c r="E3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="9" t="n">
+      <c r="F3" s="10" t="n">
         <v>20000</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -1028,8 +1038,8 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1039,7 +1049,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="12.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="9.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="16.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16380" style="0" width="11.53"/>
   </cols>
   <sheetData>
@@ -1150,12 +1160,12 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>33</v>
@@ -1166,13 +1176,13 @@
       <c r="D8" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>36</v>
+      <c r="F8" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>33</v>
@@ -1189,7 +1199,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>33</v>
@@ -1206,7 +1216,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>33</v>
@@ -1223,7 +1233,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>33</v>
@@ -1240,7 +1250,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>33</v>
@@ -1257,7 +1267,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>33</v>
@@ -1297,86 +1307,86 @@
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="34.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="16.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="16.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="6" t="n">
+        <v>45</v>
+      </c>
+      <c r="B2" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="6" t="n">
+        <v>46</v>
+      </c>
+      <c r="B3" s="7" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="4" t="n">
+        <v>47</v>
+      </c>
+      <c r="B4" s="5" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="4" t="n">
+        <v>48</v>
+      </c>
+      <c r="B5" s="5" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="4" t="n">
+        <v>49</v>
+      </c>
+      <c r="B6" s="5" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="B7" s="5" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="4" t="n">
+        <v>51</v>
+      </c>
+      <c r="B8" s="5" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="4" t="n">
+        <v>52</v>
+      </c>
+      <c r="B9" s="5" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="4" t="n">
+        <v>53</v>
+      </c>
+      <c r="B10" s="5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1384,15 +1394,15 @@
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="5" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="B12" s="5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1442,18 +1452,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1490,22 +1500,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1550,12 +1560,12 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="16.31"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1570,7 +1580,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1625,7 +1635,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
@@ -1712,8 +1722,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1721,7 +1731,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="15.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="20.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="12.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="10.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="16.31"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1729,7 +1739,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
@@ -1759,7 +1769,7 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1777,12 +1787,12 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>33</v>
@@ -1795,7 +1805,7 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
     </row>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/Clinica-Amor/archivos-amo/parametros_empresa.xlsx
+++ b/Clinica-Amor/archivos-amo/parametros_empresa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="horario" sheetId="1" state="visible" r:id="rId2"/>
@@ -980,7 +980,7 @@
   </sheetPr>
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1560,7 +1560,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1722,8 +1722,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Clinica-Amor/archivos-amo/parametros_empresa.xlsx
+++ b/Clinica-Amor/archivos-amo/parametros_empresa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="horario" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="81">
   <si>
     <t xml:space="preserve">HORA</t>
   </si>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">ENCARGADOS</t>
   </si>
   <si>
-    <t xml:space="preserve">Jue</t>
+    <t xml:space="preserve">EMAIL</t>
   </si>
   <si>
     <t xml:space="preserve">TELEFONO</t>
@@ -221,9 +221,6 @@
   </si>
   <si>
     <t xml:space="preserve">CIUDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMAIL</t>
   </si>
   <si>
     <t xml:space="preserve">Clinica del Amor</t>
@@ -553,13 +550,14 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="15.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="20.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="11.17"/>
   </cols>
   <sheetData>
@@ -568,7 +566,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
@@ -585,7 +583,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>26</v>
@@ -609,7 +607,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>3205511091</v>
+        <v>3200000001</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>2</v>
@@ -627,7 +625,7 @@
         <v>33</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>3205511091</v>
+        <v>3200000002</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>2</v>
@@ -659,7 +657,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -675,7 +673,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
@@ -692,7 +690,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>26</v>
@@ -716,7 +714,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>3205511091</v>
+        <v>3200000001</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>2</v>
@@ -734,7 +732,7 @@
         <v>33</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>3205511091</v>
+        <v>3200000002</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>2</v>
@@ -767,7 +765,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -781,7 +779,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
@@ -798,7 +796,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>26</v>
@@ -822,7 +820,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>3205511091</v>
+        <v>3200000001</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>2</v>
@@ -840,7 +838,7 @@
         <v>33</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>3205511091</v>
+        <v>3200000002</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>2</v>
@@ -895,71 +893,71 @@
         <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="9" t="n">
         <v>9999999999</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F2" s="10" t="n">
         <v>20000</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="9" t="n">
         <v>9999999999</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="F3" s="10" t="n">
         <v>20000</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -980,7 +978,7 @@
   </sheetPr>
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1039,7 +1037,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1081,7 +1079,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>3200000000</v>
+        <v>3205511091</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>1</v>
@@ -1097,6 +1095,9 @@
       <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="C3" s="2" t="n">
+        <v>3205009997</v>
+      </c>
       <c r="F3" s="2" t="s">
         <v>29</v>
       </c>
@@ -1108,6 +1109,9 @@
       <c r="B4" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="C4" s="2" t="n">
+        <v>3205009998</v>
+      </c>
       <c r="F4" s="2" t="s">
         <v>29</v>
       </c>
@@ -1120,7 +1124,7 @@
         <v>33</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>3205511091</v>
+        <v>3205009999</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>2</v>
@@ -1137,7 +1141,7 @@
         <v>33</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>3205511091</v>
+        <v>3205010000</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>2</v>
@@ -1154,7 +1158,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>3205511091</v>
+        <v>3205010001</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>2</v>
@@ -1171,7 +1175,7 @@
         <v>33</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>3205511091</v>
+        <v>3205010002</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>2</v>
@@ -1188,7 +1192,7 @@
         <v>33</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>3205511091</v>
+        <v>3205010003</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>2</v>
@@ -1205,7 +1209,7 @@
         <v>33</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>3205511091</v>
+        <v>3205010004</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>2</v>
@@ -1222,7 +1226,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>3205511091</v>
+        <v>3205010005</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>2</v>
@@ -1239,7 +1243,7 @@
         <v>33</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>3205511091</v>
+        <v>3205010006</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>2</v>
@@ -1256,7 +1260,7 @@
         <v>33</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>3205511091</v>
+        <v>3205010007</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>2</v>
@@ -1273,7 +1277,7 @@
         <v>33</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>3205511091</v>
+        <v>3205010008</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>2</v>
@@ -1515,27 +1519,27 @@
         <v>21</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>987654321</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1616,8 +1620,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1635,7 +1639,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
@@ -1652,7 +1656,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>26</v>
@@ -1675,7 +1679,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>3205511091</v>
+        <v>3200000001</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>2</v>
@@ -1692,7 +1696,7 @@
         <v>33</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>3205511091</v>
+        <v>3200000002</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>2</v>
@@ -1723,7 +1727,7 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1739,7 +1743,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>21</v>
@@ -1756,7 +1760,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>26</v>
@@ -1780,7 +1784,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>3205511091</v>
+        <v>3200000001</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>2</v>
@@ -1798,7 +1802,7 @@
         <v>33</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>3205511091</v>
+        <v>3200000002</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>2</v>

--- a/Clinica-Amor/archivos-amo/parametros_empresa.xlsx
+++ b/Clinica-Amor/archivos-amo/parametros_empresa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="horario" sheetId="1" state="visible" r:id="rId2"/>
@@ -112,7 +112,7 @@
     <t xml:space="preserve">Dr.Leonardo</t>
   </si>
   <si>
-    <t xml:space="preserve">dpdelta1@gmail.com</t>
+    <t xml:space="preserve">josegarjagt@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Encargado1</t>
@@ -287,7 +287,7 @@
     <numFmt numFmtId="166" formatCode="#"/>
     <numFmt numFmtId="167" formatCode="#,###.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -316,12 +316,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -381,7 +375,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -398,10 +392,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -414,7 +404,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -557,7 +547,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="15.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="20.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="14.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="11.17"/>
   </cols>
   <sheetData>
@@ -589,7 +579,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>3200000000</v>
+        <v>573205511091</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>1</v>
@@ -639,6 +629,9 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="josegarjagt@gmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -664,7 +657,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="15.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="20.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="14.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="12.42"/>
   </cols>
   <sheetData>
@@ -696,7 +689,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>3200000000</v>
+        <v>573205511091</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>1</v>
@@ -747,6 +740,9 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="josegarjagt@gmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -772,6 +768,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="15.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="20.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.92"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -802,7 +799,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>3200000000</v>
+        <v>573205511091</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>1</v>
@@ -849,6 +846,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="josegarjagt@gmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -873,11 +873,11 @@
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="12.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="12.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="10.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="10.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="13.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="15.06"/>
   </cols>
@@ -886,7 +886,7 @@
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -898,7 +898,7 @@
       <c r="E1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -912,7 +912,7 @@
       <c r="A2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="9" t="n">
+      <c r="B2" s="8" t="n">
         <v>9999999999</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -924,7 +924,7 @@
       <c r="E2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="10" t="n">
+      <c r="F2" s="9" t="n">
         <v>20000</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -938,7 +938,7 @@
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="9" t="n">
+      <c r="B3" s="8" t="n">
         <v>9999999999</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -950,7 +950,7 @@
       <c r="E3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="10" t="n">
+      <c r="F3" s="9" t="n">
         <v>20000</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -1036,19 +1036,19 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="15.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="20.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="12.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="18.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="9.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="16.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16380" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16380" style="3" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1079,7 +1079,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>3205511091</v>
+        <v>573205511091</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>1</v>
@@ -1180,7 +1180,7 @@
       <c r="D8" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1287,6 +1287,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="josegarjagt@gmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1311,14 +1314,14 @@
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="34.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="16.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="16.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1326,7 +1329,7 @@
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1334,7 +1337,7 @@
       <c r="A3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="6" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1342,7 +1345,7 @@
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1350,7 +1353,7 @@
       <c r="A5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1358,7 +1361,7 @@
       <c r="A6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1366,7 +1369,7 @@
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1374,7 +1377,7 @@
       <c r="A8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1382,7 +1385,7 @@
       <c r="A9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="4" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1390,7 +1393,7 @@
       <c r="A10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1398,7 +1401,7 @@
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1406,7 +1409,7 @@
       <c r="A12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="5" t="n">
+      <c r="B12" s="4" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1498,8 +1501,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="11.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="28.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="9.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="16.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="25.77"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1515,10 +1518,10 @@
       <c r="D1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1538,7 +1541,7 @@
       <c r="E2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1620,7 +1623,7 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1628,10 +1631,10 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="15.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="19.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="12.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="14.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="9.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="9.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1662,7 +1665,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>3200000000</v>
+        <v>573205511091</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>1</v>
@@ -1709,6 +1712,9 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="josegarjagt@gmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1734,7 +1740,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="15.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="20.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="12.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="14.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="16.31"/>
   </cols>
   <sheetData>
@@ -1766,7 +1772,7 @@
         <v>26</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>3200000000</v>
+        <v>573205511091</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>1</v>
@@ -1820,6 +1826,9 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="josegarjagt@gmail.com"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Clinica-Amor/archivos-amo/parametros_empresa.xlsx
+++ b/Clinica-Amor/archivos-amo/parametros_empresa.xlsx
@@ -768,7 +768,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="15.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="20.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="14.92"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1037,7 +1037,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Clinica-Amor/archivos-amo/parametros_empresa.xlsx
+++ b/Clinica-Amor/archivos-amo/parametros_empresa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="horario" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="82">
   <si>
     <t xml:space="preserve">HORA</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t xml:space="preserve">EMPRESA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FECHA</t>
   </si>
   <si>
     <t xml:space="preserve">URLSHEET</t>
@@ -375,7 +378,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -401,6 +404,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -573,7 +580,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>26</v>
@@ -683,7 +690,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>26</v>
@@ -793,7 +800,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>26</v>
@@ -873,11 +880,11 @@
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="12.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="12.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="10.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="10.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="13.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="15.06"/>
   </cols>
@@ -886,78 +893,78 @@
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>60</v>
+      <c r="B1" s="11" t="s">
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="11" t="s">
         <v>71</v>
       </c>
+      <c r="F1" s="12" t="s">
+        <v>72</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="8" t="n">
+        <v>75</v>
+      </c>
+      <c r="B2" s="9" t="n">
         <v>9999999999</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F2" s="9" t="n">
+        <v>78</v>
+      </c>
+      <c r="F2" s="10" t="n">
         <v>20000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>9999999999</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="10" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B3" s="8" t="n">
-        <v>9999999999</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="9" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1036,7 +1043,7 @@
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1445,32 +1452,39 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="12.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="97.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="97.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="2" t="s">
         <v>58</v>
+      </c>
+      <c r="B2" s="7" t="n">
+        <v>20250430</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1507,18 +1521,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -1527,22 +1541,22 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>987654321</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1673,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>26</v>
@@ -1766,7 +1780,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>26</v>

--- a/Clinica-Amor/archivos-amo/parametros_empresa.xlsx
+++ b/Clinica-Amor/archivos-amo/parametros_empresa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="horario" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="88">
   <si>
     <t xml:space="preserve">HORA</t>
   </si>
@@ -109,12 +109,24 @@
     <t xml:space="preserve">ZONA</t>
   </si>
   <si>
+    <t xml:space="preserve">DIAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HORAS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dr.Leonardo</t>
   </si>
   <si>
     <t xml:space="preserve">josegarjagt@gmail.com</t>
   </si>
   <si>
+    <t xml:space="preserve">[‘Lunes’,’ Miercoles’,‘Viernes’]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[‘08:00’,’09:00’,’11:00’]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Encargado1</t>
   </si>
   <si>
@@ -194,6 +206,12 @@
   </si>
   <si>
     <t xml:space="preserve">Dependencia en Adicciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curso 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curso 2</t>
   </si>
   <si>
     <t xml:space="preserve">Otros(libros, asesorías,  visitas)</t>
@@ -395,6 +413,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -404,10 +426,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -580,10 +598,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>573205511091</v>
@@ -598,10 +616,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3200000001</v>
@@ -616,10 +634,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3200000002</v>
@@ -690,10 +708,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>573205511091</v>
@@ -703,15 +721,15 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3200000001</v>
@@ -721,15 +739,15 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3200000002</v>
@@ -739,7 +757,7 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -800,10 +818,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>573205511091</v>
@@ -818,10 +836,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3200000001</v>
@@ -836,10 +854,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3200000002</v>
@@ -891,80 +909,80 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B2" s="9" t="n">
         <v>9999999999</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F2" s="10" t="n">
         <v>20000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B3" s="9" t="n">
         <v>9999999999</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F3" s="10" t="n">
         <v>20000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1041,10 +1059,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1055,6 +1073,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="9.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="16.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16380" style="3" width="11.53"/>
   </cols>
   <sheetData>
@@ -1077,13 +1097,19 @@
       <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>573205511091</v>
@@ -1094,41 +1120,47 @@
       <c r="F2" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="G2" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3205009997</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3205009998</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3205009999</v>
@@ -1142,10 +1174,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3205010000</v>
@@ -1159,10 +1191,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3205010001</v>
@@ -1176,10 +1208,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3205010002</v>
@@ -1193,10 +1225,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3205010003</v>
@@ -1210,10 +1242,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3205010004</v>
@@ -1227,10 +1259,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3205010005</v>
@@ -1239,15 +1271,15 @@
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3205010006</v>
@@ -1256,15 +1288,15 @@
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3205010007</v>
@@ -1278,10 +1310,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3205010008</v>
@@ -1312,115 +1344,122 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="34.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="16.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="5" width="16.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="6" t="n">
+        <v>49</v>
+      </c>
+      <c r="B2" s="7" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="B3" s="7" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="4" t="n">
+        <v>51</v>
+      </c>
+      <c r="B4" s="5" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="4" t="n">
+        <v>52</v>
+      </c>
+      <c r="B5" s="5" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="4" t="n">
+        <v>53</v>
+      </c>
+      <c r="B6" s="5" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="4" t="n">
+        <v>54</v>
+      </c>
+      <c r="B7" s="5" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="4" t="n">
+        <v>55</v>
+      </c>
+      <c r="B8" s="5" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="4" t="n">
+        <v>56</v>
+      </c>
+      <c r="B9" s="5" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="4" t="n">
+        <v>57</v>
+      </c>
+      <c r="B10" s="5" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>10</v>
+        <v>58</v>
+      </c>
+      <c r="B11" s="5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="B12" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="5" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1436,6 +1475,7 @@
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1454,37 +1494,37 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="12.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="97.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="7" t="n">
+        <v>64</v>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>20250430</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1521,16 +1561,16 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>21</v>
@@ -1541,22 +1581,22 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>987654321</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1611,7 +1651,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1673,10 +1713,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>573205511091</v>
@@ -1690,10 +1730,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3200000001</v>
@@ -1707,10 +1747,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3200000002</v>
@@ -1780,10 +1820,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>573205511091</v>
@@ -1798,10 +1838,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3200000001</v>
@@ -1816,10 +1856,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3200000002</v>
